--- a/automation-testing/target/test-classes/data_source.xlsx
+++ b/automation-testing/target/test-classes/data_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CSC13003-Software-Testing\automation-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47467C32-A57E-4CB3-ADA0-9BFA5F9FECC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE6B448-3D93-4B11-A17A-F2C11EADCE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
   <si>
     <t>No</t>
   </si>
@@ -66,6 +66,46 @@
   <si>
     <t>Successfully Saved
 Navigate to "searchKPI" page</t>
+  </si>
+  <si>
+    <t>Tracker Name</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>First Quarter 2022</t>
+  </si>
+  <si>
+    <t>Hà My Nguyễn</t>
+  </si>
+  <si>
+    <t>Minh Châu Nguyễn</t>
+  </si>
+  <si>
+    <t>http://localhost/orangehrm-5.1/web/index.php/performance/viewPerformanceTracker</t>
+  </si>
+  <si>
+    <t>1 error field</t>
+  </si>
+  <si>
+    <t>Minh Anh Nguyễn</t>
+  </si>
+  <si>
+    <t>2 error field</t>
+  </si>
+  <si>
+    <t>Hà My Nguyễn, Linh Trang Phạm</t>
+  </si>
+  <si>
+    <t>Minh Châu Nguyễn
+Linh Trang Phạm</t>
+  </si>
+  <si>
+    <t>Reviewers Name</t>
+  </si>
+  <si>
+    <t>Marketing</t>
   </si>
 </sst>
 </file>
@@ -108,10 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -397,7 +440,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -570,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -701,12 +744,195 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5202BB-CAED-4C18-BF61-942CC1D604C0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="31.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/automation-testing/target/test-classes/data_source.xlsx
+++ b/automation-testing/target/test-classes/data_source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CSC13003-Software-Testing\automation-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE6B448-3D93-4B11-A17A-F2C11EADCE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED6F435-F3AB-4655-ACEB-A48C624C32C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="2460" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" r:id="rId1"/>
@@ -95,17 +95,16 @@
     <t>2 error field</t>
   </si>
   <si>
-    <t>Hà My Nguyễn, Linh Trang Phạm</t>
-  </si>
-  <si>
-    <t>Minh Châu Nguyễn
-Linh Trang Phạm</t>
-  </si>
-  <si>
     <t>Reviewers Name</t>
   </si>
   <si>
     <t>Marketing</t>
+  </si>
+  <si>
+    <t>Minh Châu @ Nguyễn</t>
+  </si>
+  <si>
+    <t>Hà My # Nguyễn</t>
   </si>
 </sst>
 </file>
@@ -148,13 +147,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -439,15 +435,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="89.625" style="1" bestFit="1" customWidth="1"/>
@@ -613,7 +609,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -746,15 +742,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5202BB-CAED-4C18-BF61-942CC1D604C0}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="31.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="89.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -770,7 +767,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -789,7 +786,7 @@
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -897,7 +894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -905,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
@@ -914,7 +911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -924,11 +921,11 @@
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/automation-testing/target/test-classes/data_source.xlsx
+++ b/automation-testing/target/test-classes/data_source.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CSC13003-Software-Testing\automation-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED6F435-F3AB-4655-ACEB-A48C624C32C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669F9365-0C57-4A56-9593-84F3EA1B932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="2460" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
   <si>
     <t>No</t>
   </si>
@@ -52,22 +52,9 @@
     <t>Sales</t>
   </si>
   <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Should be a number between 0-100</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
-    <t>Maximum Rating should be greater than Minimum Rating</t>
-  </si>
-  <si>
-    <t>Successfully Saved
-Navigate to "searchKPI" page</t>
-  </si>
-  <si>
     <t>Tracker Name</t>
   </si>
   <si>
@@ -104,13 +91,20 @@
     <t>Minh Châu @ Nguyễn</t>
   </si>
   <si>
-    <t>Hà My # Nguyễn</t>
+    <t>http://localhost/orangehrm-5.1/web/index.php/performance/searchKpi</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>http://localhost/orangehrm-5.1/web/index.php/performance/addPerformanceTracker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,24 +427,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="5.125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="42.5"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="16.5"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="26.375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="66.375"/>
+    <col min="7" max="7" customWidth="true" style="1" width="39.625"/>
+    <col min="8" max="16384" style="1" width="9.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +464,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -487,10 +485,10 @@
         <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -504,10 +502,10 @@
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -521,10 +519,10 @@
         <v>80</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -541,10 +539,10 @@
         <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -558,30 +556,30 @@
         <v>80</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -598,10 +596,10 @@
         <v>-1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -609,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -618,10 +616,10 @@
         <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -635,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -658,10 +656,10 @@
         <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -675,10 +673,10 @@
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -695,10 +693,10 @@
         <v>101</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -715,10 +713,10 @@
         <v>101</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -729,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -740,192 +738,202 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5202BB-CAED-4C18-BF61-942CC1D604C0}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="89.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="5.625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="29.625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="31.125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="35.625"/>
+    <col min="5" max="5" customWidth="true" style="1" width="89.5"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0"/>
+    <col min="7" max="16384" style="1" width="9.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/automation-testing/target/test-classes/data_source.xlsx
+++ b/automation-testing/target/test-classes/data_source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CSC13003-Software-Testing\automation-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669F9365-0C57-4A56-9593-84F3EA1B932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7EBC4D-FD9C-4D32-9BCC-563F93A0C407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Actual Result</t>
-  </si>
-  <si>
-    <t>http://localhost/orangehrm-5.1/web/index.php/performance/addPerformanceTracker</t>
   </si>
 </sst>
 </file>
@@ -429,9 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -487,6 +482,9 @@
       <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -504,6 +502,9 @@
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -521,6 +522,9 @@
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -541,6 +545,9 @@
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -558,6 +565,9 @@
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -578,6 +588,9 @@
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -596,6 +609,9 @@
         <v>-1</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -618,6 +634,9 @@
       <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -638,6 +657,9 @@
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -658,6 +680,9 @@
       <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -675,6 +700,9 @@
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -695,6 +723,9 @@
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -713,7 +744,10 @@
         <v>101</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -727,6 +761,9 @@
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -740,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5202BB-CAED-4C18-BF61-942CC1D604C0}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -751,7 +788,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="31.125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="35.625"/>
     <col min="5" max="5" customWidth="true" style="1" width="89.5"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0"/>
+    <col min="6" max="6" customWidth="true" style="2" width="90.875"/>
     <col min="7" max="16384" style="1" width="9.0"/>
   </cols>
   <sheetData>
@@ -771,7 +808,7 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -912,9 +949,6 @@
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -930,9 +964,6 @@
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
         <v>15</v>
       </c>
     </row>
